--- a/ABB workshop Graph.xlsx
+++ b/ABB workshop Graph.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tlbc440039\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\icanfly37\Documents\GitHub\excel-graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDAE88F-481E-4A6B-B75A-F17AD2E9389D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A75440C-9E35-4B7D-9578-94CD6FD8F4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{D726EBB6-85BE-48F7-8CFA-0E0E9C108DFC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="35610" windowHeight="13320" xr2:uid="{D726EBB6-85BE-48F7-8CFA-0E0E9C108DFC}"/>
   </bookViews>
   <sheets>
     <sheet name="ABB1" sheetId="1" r:id="rId1"/>
@@ -23,17 +23,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -447,11 +436,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -460,14 +449,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -475,7 +464,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -554,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -597,9 +586,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -923,169 +909,196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436052C9-D316-4D85-852F-4795D0037FED}">
-  <dimension ref="A2:E29"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="36.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="36.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="5" width="12.453125" customWidth="1"/>
+    <col min="2" max="5" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>29</v>
@@ -1094,309 +1107,275 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="2" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1408,226 +1387,250 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9038D205-1B14-4447-B2E2-CEF64B3E4495}">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="54.81640625" customWidth="1"/>
-    <col min="3" max="6" width="13.81640625" customWidth="1"/>
+    <col min="2" max="2" width="54.875" customWidth="1"/>
+    <col min="3" max="6" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="19" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="21" customFormat="1">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-    </row>
-    <row r="4" spans="1:6" s="18" customFormat="1">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>93</v>
+      <c r="B6" s="22" t="s">
+        <v>94</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>94</v>
+      <c r="B8" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>12</v>
@@ -1636,87 +1639,87 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
         <v>6</v>
       </c>
@@ -1724,19 +1727,19 @@
         <v>100</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
         <v>6</v>
       </c>
@@ -1744,64 +1747,64 @@
         <v>102</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>29</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>29</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>29</v>
@@ -1813,90 +1816,90 @@
         <v>29</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>29</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>29</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F24" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="20" t="s">
+      <c r="E25" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>6</v>
       </c>
@@ -1904,861 +1907,821 @@
         <v>107</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>45</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="20" t="s">
         <v>109</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>107</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>45</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>45</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>45</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>45</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>45</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>45</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>45</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C32" s="20" t="s">
         <v>45</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>45</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>47</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>47</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C36" s="20" t="s">
         <v>47</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>47</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C37" s="20" t="s">
         <v>47</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="C38" s="20" t="s">
         <v>47</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>47</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>52</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E41" s="20" t="s">
         <v>52</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C42" s="20" t="s">
         <v>52</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E42" s="20" t="s">
         <v>52</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C43" s="20" t="s">
         <v>52</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>52</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C44" s="20" t="s">
         <v>52</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>52</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C47" s="20" t="s">
         <v>59</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>59</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C48" s="20" t="s">
         <v>59</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E48" s="20" t="s">
         <v>59</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C49" s="20" t="s">
         <v>59</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E49" s="20" t="s">
         <v>59</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C50" s="20" t="s">
         <v>59</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C54" s="20" t="s">
         <v>61</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>61</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C55" s="20" t="s">
         <v>61</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="E55" s="20" t="s">
         <v>61</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="C56" s="20" t="s">
         <v>61</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C57" s="20" t="s">
         <v>61</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E57" s="20" t="s">
         <v>61</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="E58" s="20" t="s">
         <v>63</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C60" s="20" t="s">
         <v>63</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="E60" s="20" t="s">
         <v>63</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C61" s="20" t="s">
         <v>63</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C62" s="20" t="s">
         <v>63</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E62" s="20" t="s">
         <v>63</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="C63" s="20" t="s">
         <v>63</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E63" s="20" t="s">
         <v>63</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="C64" s="20" t="s">
         <v>63</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E64" s="20" t="s">
         <v>63</v>
       </c>
       <c r="F64" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C65" s="20" t="s">
         <v>63</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="E65" s="20" t="s">
         <v>63</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C66" s="20" t="s">
         <v>63</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E66" s="20" t="s">
         <v>63</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B67" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D67" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E67" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F67" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B68" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C68" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D68" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E68" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F68" s="20" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F68">
-    <sortCondition ref="C4:C68"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F66">
+    <sortCondition ref="C2:C66"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2766,100 +2729,100 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A44F81-35D0-4A34-A91D-99D7F15CB616}">
-  <dimension ref="A2:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.81640625" customWidth="1"/>
-    <col min="2" max="5" width="16.7265625" customWidth="1"/>
+    <col min="1" max="1" width="47.875" customWidth="1"/>
+    <col min="2" max="5" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="25" t="s">
+      <c r="B3" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="25" t="s">
+      <c r="D4" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="25" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="25" t="s">
+      <c r="D5" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="25" t="s">
+      <c r="E5" s="24" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2876,12 +2839,12 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.36328125" customWidth="1"/>
+    <col min="1" max="1" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="23.5">
+    <row r="1" spans="1:51" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
@@ -2937,7 +2900,7 @@
       <c r="AX1" s="3"/>
       <c r="AY1" s="3"/>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>67</v>
       </c>
@@ -3092,7 +3055,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>7</v>
       </c>
@@ -3155,10 +3118,10 @@
       <c r="AX4" s="3"/>
       <c r="AY4" s="3"/>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>7</v>
       </c>
@@ -3217,10 +3180,10 @@
       <c r="AX6" s="3"/>
       <c r="AY6" s="3"/>
     </row>
-    <row r="7" spans="1:51">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:51">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <v>243406</v>
       </c>
@@ -3275,10 +3238,10 @@
       <c r="AX8" s="3"/>
       <c r="AY8" s="3"/>
     </row>
-    <row r="9" spans="1:51">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
     </row>
-    <row r="10" spans="1:51">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>243406</v>
       </c>
@@ -3333,10 +3296,10 @@
       <c r="AX10" s="3"/>
       <c r="AY10" s="3"/>
     </row>
-    <row r="11" spans="1:51">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
     </row>
-    <row r="12" spans="1:51">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>243406</v>
       </c>
@@ -3391,10 +3354,10 @@
       <c r="AX12" s="3"/>
       <c r="AY12" s="3"/>
     </row>
-    <row r="13" spans="1:51">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
     </row>
-    <row r="14" spans="1:51">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
         <v>243407</v>
       </c>
@@ -3449,10 +3412,10 @@
       <c r="AX14" s="3"/>
       <c r="AY14" s="3"/>
     </row>
-    <row r="15" spans="1:51">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:51">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <v>243407</v>
       </c>
@@ -3507,30 +3470,30 @@
       <c r="AX16" s="3"/>
       <c r="AY16" s="3"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>243407</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="15">
         <v>243408</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="15">
         <v>243408</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="15">
         <v>243408</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="15">
         <v>243409</v>
       </c>

--- a/ABB workshop Graph.xlsx
+++ b/ABB workshop Graph.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\icanfly37\Documents\GitHub\excel-graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DA15B1-6BDF-4612-9860-96A33B19846E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B818D32-E78A-41DF-B667-7CEFD75E882B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="35610" windowHeight="13320" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="35610" windowHeight="13320" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ABB1" sheetId="1" r:id="rId1"/>
     <sheet name="ABB2" sheetId="2" r:id="rId2"/>
     <sheet name="ABB4" sheetId="3" r:id="rId3"/>
     <sheet name="ตัวอย่างกราฟ" sheetId="4" r:id="rId4"/>
+    <sheet name="Graph Timing ABB1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="134">
   <si>
     <t>ชื่อสินค้า</t>
   </si>
@@ -464,7 +465,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -525,6 +526,102 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor rgb="FFFF00FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor rgb="FF0000FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33CCCC"/>
+        <bgColor rgb="FF33CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0066CC"/>
+        <bgColor rgb="FF0066CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF969696"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor rgb="FF008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808000"/>
+        <bgColor rgb="FF808000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCFF"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CC00"/>
+        <bgColor rgb="FF99CC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8080"/>
+        <bgColor rgb="FFFF8080"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -538,7 +635,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -573,6 +670,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -887,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1356,6 +1469,13 @@
       <c r="E27" s="17" t="s">
         <v>62</v>
       </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2810,8 +2930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AY26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3117,4 +3237,395 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AX22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AL16" sqref="AL16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" t="s">
+        <v>125</v>
+      </c>
+      <c r="L2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O2" t="s">
+        <v>128</v>
+      </c>
+      <c r="P2" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>130</v>
+      </c>
+      <c r="R2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" t="s">
+        <v>15</v>
+      </c>
+      <c r="W2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="AD6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="19"/>
+      <c r="AM6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN6" s="20"/>
+      <c r="AO6" s="20"/>
+      <c r="AP6" s="20"/>
+      <c r="AQ6" s="20"/>
+      <c r="AR6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS6" s="20"/>
+      <c r="AT6" s="20"/>
+      <c r="AU6" s="20"/>
+      <c r="AV6" s="20"/>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="Y8" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ8" s="21"/>
+      <c r="AK8" s="21"/>
+      <c r="AL8" s="21"/>
+      <c r="AM8" s="21"/>
+      <c r="AN8" s="21"/>
+      <c r="AO8" s="21"/>
+      <c r="AP8" s="21"/>
+      <c r="AQ8" s="21"/>
+      <c r="AR8" s="21"/>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB10" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="23"/>
+      <c r="AE10" s="23"/>
+      <c r="AF10" s="23"/>
+      <c r="AI10" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ10" s="24"/>
+      <c r="AK10" s="24"/>
+      <c r="AL10" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM10" s="25"/>
+      <c r="AN10" s="25"/>
+      <c r="AO10" s="25"/>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y12" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="24"/>
+      <c r="AD12" s="24"/>
+      <c r="AE12" s="24"/>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="U14" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="AD14" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="26"/>
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="26"/>
+      <c r="AJ14" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK14" s="27"/>
+      <c r="AL14" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM14" s="28"/>
+      <c r="AN14" s="28"/>
+      <c r="AO14" s="28"/>
+      <c r="AP14" s="28"/>
+      <c r="AQ14" s="28"/>
+      <c r="AR14" s="28"/>
+      <c r="AS14" s="28"/>
+      <c r="AT14" s="28"/>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="T16" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AF16" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="27"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD18" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG18" s="30"/>
+      <c r="AH18" s="30"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC20" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD20" s="31"/>
+      <c r="AE20" s="31"/>
+      <c r="AF20" s="31"/>
+      <c r="AG20" s="31"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="T22" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="X22" s="33"/>
+      <c r="Y22" s="33"/>
+      <c r="Z22" s="33"/>
+      <c r="AA22" s="33"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/ABB workshop Graph.xlsx
+++ b/ABB workshop Graph.xlsx
@@ -8,23 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\icanfly37\Documents\GitHub\excel-graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B818D32-E78A-41DF-B667-7CEFD75E882B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DB96DA-E2D7-400D-8C99-25080373E37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="35610" windowHeight="13320" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="35610" windowHeight="13320" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ABB1" sheetId="1" r:id="rId1"/>
     <sheet name="ABB2" sheetId="2" r:id="rId2"/>
     <sheet name="ABB4" sheetId="3" r:id="rId3"/>
     <sheet name="ตัวอย่างกราฟ" sheetId="4" r:id="rId4"/>
-    <sheet name="Graph Timing ABB1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="134">
   <si>
     <t>ชื่อสินค้า</t>
   </si>
@@ -465,7 +464,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -526,102 +525,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF00FF"/>
-        <bgColor rgb="FFFF00FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF808080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0000FF"/>
-        <bgColor rgb="FF0000FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF33CCCC"/>
-        <bgColor rgb="FF33CCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
-        <bgColor rgb="FFFF6600"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0066CC"/>
-        <bgColor rgb="FF0066CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFFF"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF969696"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
-        <bgColor rgb="FF008000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808000"/>
-        <bgColor rgb="FF808000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCFF"/>
-        <bgColor rgb="FFCCCCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
-        <bgColor rgb="FF00FFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99CC00"/>
-        <bgColor rgb="FF99CC00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF8080"/>
-        <bgColor rgb="FFFF8080"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -635,7 +538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -670,22 +573,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2930,8 +2817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AY26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3237,395 +3124,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AX22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AL16" sqref="AL16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K2" t="s">
-        <v>125</v>
-      </c>
-      <c r="L2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M2" t="s">
-        <v>126</v>
-      </c>
-      <c r="N2" t="s">
-        <v>127</v>
-      </c>
-      <c r="O2" t="s">
-        <v>128</v>
-      </c>
-      <c r="P2" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>130</v>
-      </c>
-      <c r="R2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" t="s">
-        <v>14</v>
-      </c>
-      <c r="U2" t="s">
-        <v>48</v>
-      </c>
-      <c r="V2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W2" t="s">
-        <v>60</v>
-      </c>
-      <c r="X2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF4" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG4" s="18"/>
-      <c r="AH4" s="18"/>
-    </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="T6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="AD6" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="19"/>
-      <c r="AM6" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN6" s="20"/>
-      <c r="AO6" s="20"/>
-      <c r="AP6" s="20"/>
-      <c r="AQ6" s="20"/>
-      <c r="AR6" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="AS6" s="20"/>
-      <c r="AT6" s="20"/>
-      <c r="AU6" s="20"/>
-      <c r="AV6" s="20"/>
-    </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S8" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="Y8" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="22"/>
-      <c r="AD8" s="22"/>
-      <c r="AE8" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF8" s="22"/>
-      <c r="AG8" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH8" s="18"/>
-      <c r="AI8" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ8" s="21"/>
-      <c r="AK8" s="21"/>
-      <c r="AL8" s="21"/>
-      <c r="AM8" s="21"/>
-      <c r="AN8" s="21"/>
-      <c r="AO8" s="21"/>
-      <c r="AP8" s="21"/>
-      <c r="AQ8" s="21"/>
-      <c r="AR8" s="21"/>
-    </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB10" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC10" s="23"/>
-      <c r="AD10" s="23"/>
-      <c r="AE10" s="23"/>
-      <c r="AF10" s="23"/>
-      <c r="AI10" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ10" s="24"/>
-      <c r="AK10" s="24"/>
-      <c r="AL10" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM10" s="25"/>
-      <c r="AN10" s="25"/>
-      <c r="AO10" s="25"/>
-    </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y12" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="24"/>
-      <c r="AB12" s="24"/>
-      <c r="AC12" s="24"/>
-      <c r="AD12" s="24"/>
-      <c r="AE12" s="24"/>
-    </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="U14" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="AD14" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE14" s="26"/>
-      <c r="AF14" s="26"/>
-      <c r="AG14" s="26"/>
-      <c r="AH14" s="26"/>
-      <c r="AJ14" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK14" s="27"/>
-      <c r="AL14" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM14" s="28"/>
-      <c r="AN14" s="28"/>
-      <c r="AO14" s="28"/>
-      <c r="AP14" s="28"/>
-      <c r="AQ14" s="28"/>
-      <c r="AR14" s="28"/>
-      <c r="AS14" s="28"/>
-      <c r="AT14" s="28"/>
-    </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>50</v>
-      </c>
-      <c r="T16" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="25"/>
-      <c r="AF16" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG16" s="27"/>
-      <c r="AH16" s="27"/>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD18" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE18" s="19"/>
-      <c r="AF18" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG18" s="30"/>
-      <c r="AH18" s="30"/>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC20" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD20" s="31"/>
-      <c r="AE20" s="31"/>
-      <c r="AF20" s="31"/>
-      <c r="AG20" s="31"/>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>59</v>
-      </c>
-      <c r="T22" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="U22" s="32"/>
-      <c r="V22" s="32"/>
-      <c r="W22" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="33"/>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="33"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/ABB workshop Graph.xlsx
+++ b/ABB workshop Graph.xlsx
@@ -8,23 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\icanfly37\Documents\GitHub\excel-graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93E1F31-57CD-4577-84A0-AE32E359AC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC805326-9262-4808-BFDF-D160D49D051D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="35610" windowHeight="13320" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12120" yWindow="990" windowWidth="19335" windowHeight="9495" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ABB1" sheetId="1" r:id="rId1"/>
     <sheet name="ABB2" sheetId="2" r:id="rId2"/>
     <sheet name="ABB4" sheetId="3" r:id="rId3"/>
     <sheet name="ตัวอย่างกราฟ" sheetId="4" r:id="rId4"/>
-    <sheet name="Graph Timing ABB1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="134">
   <si>
     <t>ชื่อสินค้า</t>
   </si>
@@ -2818,8 +2817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AY26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3125,245 +3124,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A2:AW34"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K2" t="s">
-        <v>125</v>
-      </c>
-      <c r="L2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M2" t="s">
-        <v>126</v>
-      </c>
-      <c r="N2" t="s">
-        <v>127</v>
-      </c>
-      <c r="O2" t="s">
-        <v>128</v>
-      </c>
-      <c r="P2" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>130</v>
-      </c>
-      <c r="R2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" t="s">
-        <v>14</v>
-      </c>
-      <c r="U2" t="s">
-        <v>48</v>
-      </c>
-      <c r="V2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W2" t="s">
-        <v>60</v>
-      </c>
-      <c r="X2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/ABB workshop Graph.xlsx
+++ b/ABB workshop Graph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\icanfly37\Documents\GitHub\excel-graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC805326-9262-4808-BFDF-D160D49D051D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBAF5BA-CD5C-48F6-ADB2-CA6375501C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12120" yWindow="990" windowWidth="19335" windowHeight="9495" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="35610" windowHeight="13320" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ABB1" sheetId="1" r:id="rId1"/>
@@ -2818,7 +2818,7 @@
   <dimension ref="A1:AY26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/ABB workshop Graph.xlsx
+++ b/ABB workshop Graph.xlsx
@@ -53,7 +53,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="30">
     <fill>
       <patternFill/>
     </fill>
@@ -116,14 +116,116 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="0099CCFF"/>
+        <bgColor rgb="0099CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009999FF"/>
+        <bgColor rgb="009999FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00008080"/>
+        <bgColor rgb="00008080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00666699"/>
+        <bgColor rgb="00666699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00993366"/>
         <bgColor rgb="00993366"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF99CC"/>
-        <bgColor rgb="00FF99CC"/>
+        <fgColor rgb="00FFCC00"/>
+        <bgColor rgb="00FFCC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003366FF"/>
+        <bgColor rgb="003366FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C0C0C0"/>
+        <bgColor rgb="00C0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00969696"/>
+        <bgColor rgb="00969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00800080"/>
+        <bgColor rgb="00800080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF99"/>
+        <bgColor rgb="00FFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFCC99"/>
+        <bgColor rgb="00FFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF8080"/>
+        <bgColor rgb="00FF8080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00808080"/>
+        <bgColor rgb="00808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CCFFCC"/>
+        <bgColor rgb="00CCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CCCCFF"/>
+        <bgColor rgb="00CCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF00FF"/>
+        <bgColor rgb="00FF00FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -139,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -175,7 +277,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3608,7 +3727,7 @@
   <dimension ref="A1:AY26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -4044,7 +4163,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW30"/>
+  <dimension ref="A1:AX24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4310,6 +4429,11 @@
           <t>23:30</t>
         </is>
       </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4317,20 +4441,13 @@
           <t>01/06/2566</t>
         </is>
       </c>
-      <c r="AF4" s="19" t="inlineStr">
+      <c r="AF4" s="18" t="inlineStr">
         <is>
           <t>GEAR OIL EP 460</t>
         </is>
       </c>
-      <c r="AG4" s="19" t="n"/>
-      <c r="AH4" s="19" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>02/06/2566</t>
-        </is>
-      </c>
+      <c r="AG4" s="18" t="n"/>
+      <c r="AH4" s="18" t="n"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4338,169 +4455,275 @@
           <t>02/06/2566</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>02/06/2566</t>
-        </is>
-      </c>
+      <c r="T6" s="19" t="inlineStr">
+        <is>
+          <t>PARAFEX 4000R</t>
+        </is>
+      </c>
+      <c r="U6" s="19" t="n"/>
+      <c r="V6" s="19" t="n"/>
+      <c r="AD6" s="20" t="inlineStr">
+        <is>
+          <t>GEAR OIL EP 320 (JA748R)</t>
+        </is>
+      </c>
+      <c r="AE6" s="20" t="n"/>
+      <c r="AF6" s="20" t="n"/>
+      <c r="AG6" s="20" t="n"/>
+      <c r="AH6" s="20" t="n"/>
+      <c r="AI6" s="20" t="n"/>
+      <c r="AM6" s="21" t="inlineStr">
+        <is>
+          <t>PARAFEX S103</t>
+        </is>
+      </c>
+      <c r="AN6" s="21" t="n"/>
+      <c r="AO6" s="21" t="n"/>
+      <c r="AP6" s="21" t="n"/>
+      <c r="AQ6" s="21" t="n"/>
+      <c r="AR6" s="22" t="inlineStr">
+        <is>
+          <t>PARAFEX S105</t>
+        </is>
+      </c>
+      <c r="AS6" s="22" t="n"/>
+      <c r="AT6" s="22" t="n"/>
+      <c r="AU6" s="22" t="n"/>
+      <c r="AV6" s="22" t="n"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>02/06/2566</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
           <t>05/06/2566</t>
         </is>
       </c>
+      <c r="S8" s="23" t="inlineStr">
+        <is>
+          <t>GEAR OIL EP 680</t>
+        </is>
+      </c>
+      <c r="T8" s="23" t="n"/>
+      <c r="U8" s="23" t="n"/>
+      <c r="V8" s="23" t="n"/>
+      <c r="Y8" s="24" t="inlineStr">
+        <is>
+          <t>HYDRAULIC 46</t>
+        </is>
+      </c>
+      <c r="Z8" s="24" t="n"/>
+      <c r="AA8" s="24" t="n"/>
+      <c r="AB8" s="24" t="n"/>
+      <c r="AC8" s="24" t="n"/>
+      <c r="AD8" s="24" t="n"/>
+      <c r="AE8" s="24" t="inlineStr">
+        <is>
+          <t>RUBFLEX 205</t>
+        </is>
+      </c>
+      <c r="AF8" s="24" t="n"/>
+      <c r="AG8" s="24" t="inlineStr">
+        <is>
+          <t>PARAFEX 2000M</t>
+        </is>
+      </c>
+      <c r="AH8" s="25" t="n"/>
+      <c r="AI8" s="25" t="inlineStr">
+        <is>
+          <t>HINO GEAR OIL GX 85W-140 (GL-5)</t>
+        </is>
+      </c>
+      <c r="AJ8" s="26" t="n"/>
+      <c r="AK8" s="26" t="n"/>
+      <c r="AL8" s="26" t="n"/>
+      <c r="AM8" s="26" t="n"/>
+      <c r="AN8" s="26" t="n"/>
+      <c r="AO8" s="26" t="n"/>
+      <c r="AP8" s="26" t="n"/>
+      <c r="AQ8" s="26" t="n"/>
+      <c r="AR8" s="26" t="n"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>05/06/2566</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>05/06/2566</t>
-        </is>
-      </c>
+          <t>06/06/2566</t>
+        </is>
+      </c>
+      <c r="AB10" s="20" t="inlineStr">
+        <is>
+          <t>PARAFEX S103</t>
+        </is>
+      </c>
+      <c r="AC10" s="20" t="n"/>
+      <c r="AD10" s="20" t="n"/>
+      <c r="AE10" s="20" t="n"/>
+      <c r="AF10" s="20" t="n"/>
+      <c r="AI10" s="21" t="inlineStr">
+        <is>
+          <t>COMPRESSOR OIL 68</t>
+        </is>
+      </c>
+      <c r="AJ10" s="21" t="n"/>
+      <c r="AK10" s="21" t="n"/>
+      <c r="AL10" s="27" t="inlineStr">
+        <is>
+          <t>VELOCE (by Vespiario) 4T 5W-40, JASO MA2, API SN</t>
+        </is>
+      </c>
+      <c r="AM10" s="27" t="n"/>
+      <c r="AN10" s="27" t="n"/>
+      <c r="AO10" s="27" t="n"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>05/06/2566</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>05/06/2566</t>
-        </is>
-      </c>
+          <t>07/06/2566</t>
+        </is>
+      </c>
+      <c r="Y12" s="28" t="inlineStr">
+        <is>
+          <t>GEAR OIL EP 220 (JA748R)</t>
+        </is>
+      </c>
+      <c r="Z12" s="28" t="n"/>
+      <c r="AA12" s="28" t="n"/>
+      <c r="AB12" s="28" t="n"/>
+      <c r="AC12" s="28" t="n"/>
+      <c r="AD12" s="28" t="n"/>
+      <c r="AE12" s="28" t="n"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>06/06/2566</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>06/06/2566</t>
-        </is>
-      </c>
+          <t>08/06/2566</t>
+        </is>
+      </c>
+      <c r="U14" s="29" t="inlineStr">
+        <is>
+          <t>HYDRAULIC HVI 68</t>
+        </is>
+      </c>
+      <c r="V14" s="29" t="n"/>
+      <c r="W14" s="29" t="n"/>
+      <c r="X14" s="29" t="n"/>
+      <c r="Y14" s="29" t="n"/>
+      <c r="AD14" s="30" t="inlineStr">
+        <is>
+          <t>FLUSHING OIL</t>
+        </is>
+      </c>
+      <c r="AE14" s="30" t="n"/>
+      <c r="AF14" s="30" t="n"/>
+      <c r="AG14" s="30" t="n"/>
+      <c r="AH14" s="30" t="n"/>
+      <c r="AJ14" s="31" t="inlineStr">
+        <is>
+          <t>GL-5 : SAE 140, API GL-5 (DA767R)</t>
+        </is>
+      </c>
+      <c r="AK14" s="31" t="n"/>
+      <c r="AL14" s="29" t="inlineStr">
+        <is>
+          <t>HYDRAULIC 68</t>
+        </is>
+      </c>
+      <c r="AM14" s="29" t="n"/>
+      <c r="AN14" s="29" t="n"/>
+      <c r="AO14" s="29" t="n"/>
+      <c r="AP14" s="29" t="n"/>
+      <c r="AQ14" s="29" t="n"/>
+      <c r="AR14" s="29" t="n"/>
+      <c r="AS14" s="29" t="n"/>
+      <c r="AT14" s="29" t="n"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>06/06/2566</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>07/06/2566</t>
-        </is>
-      </c>
+          <t>09/06/2566</t>
+        </is>
+      </c>
+      <c r="T16" s="32" t="inlineStr">
+        <is>
+          <t>PARAFEX S103</t>
+        </is>
+      </c>
+      <c r="U16" s="32" t="n"/>
+      <c r="V16" s="32" t="n"/>
+      <c r="W16" s="32" t="n"/>
+      <c r="X16" s="32" t="inlineStr">
+        <is>
+          <t>GEAR OIL EP 220 (JA748R)</t>
+        </is>
+      </c>
+      <c r="Y16" s="18" t="n"/>
+      <c r="Z16" s="18" t="n"/>
+      <c r="AF16" s="33" t="inlineStr">
+        <is>
+          <t>ATLANTA MARINE D 3005</t>
+        </is>
+      </c>
+      <c r="AG16" s="33" t="n"/>
+      <c r="AH16" s="33" t="n"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>08/06/2566</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>08/06/2566</t>
-        </is>
-      </c>
+          <t>10/06/2566</t>
+        </is>
+      </c>
+      <c r="AD18" s="34" t="inlineStr">
+        <is>
+          <t>SLIDEWAY OIL 220</t>
+        </is>
+      </c>
+      <c r="AE18" s="34" t="n"/>
+      <c r="AF18" s="34" t="inlineStr">
+        <is>
+          <t>AUTOMAT ATF LV-1 : JASO 1A LV</t>
+        </is>
+      </c>
+      <c r="AG18" s="29" t="n"/>
+      <c r="AH18" s="29" t="n"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>08/06/2566</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>08/06/2566</t>
-        </is>
-      </c>
+          <t>12/06/2566</t>
+        </is>
+      </c>
+      <c r="AC20" s="25" t="inlineStr">
+        <is>
+          <t>PARAFEX S103</t>
+        </is>
+      </c>
+      <c r="AD20" s="25" t="n"/>
+      <c r="AE20" s="25" t="n"/>
+      <c r="AF20" s="25" t="n"/>
+      <c r="AG20" s="25" t="n"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>09/06/2566</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>09/06/2566</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>09/06/2566</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>10/06/2566</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>10/06/2566</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>12/06/2566</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
           <t>13/06/2566</t>
         </is>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>13/06/2566</t>
-        </is>
-      </c>
-    </row>
-    <row r="30"/>
+      <c r="T22" s="35" t="inlineStr">
+        <is>
+          <t>GEAR OIL EP 150</t>
+        </is>
+      </c>
+      <c r="U22" s="35" t="n"/>
+      <c r="V22" s="35" t="n"/>
+      <c r="W22" s="36" t="inlineStr">
+        <is>
+          <t>PARAFEX S106</t>
+        </is>
+      </c>
+      <c r="X22" s="36" t="n"/>
+      <c r="Y22" s="36" t="n"/>
+      <c r="Z22" s="36" t="n"/>
+      <c r="AA22" s="36" t="n"/>
+    </row>
+    <row r="24"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
